--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -487,12 +487,48 @@
     <t>单次执行，上线后由开发通知执行一次。</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>数据中心运营报表每日增量财务字段更新</t>
+  </si>
+  <si>
+    <t>王岩</t>
+  </si>
+  <si>
+    <t>孙苏文</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask"}</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每日凌晨3点</t>
+  </si>
+  <si>
+    <t>是，依赖DcLandStatIncDayTask</t>
+  </si>
+  <si>
+    <t>不可重复执行，如有错，需开发修复</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -681,6 +717,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -932,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1191,33 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,32 +1245,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1233,7 +1278,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -5892,10 +5937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5975,25 +6020,25 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H2" s="32" t="s">
@@ -6002,52 +6047,52 @@
       <c r="I2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="77" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -6056,52 +6101,52 @@
       <c r="I3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="77" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="88" t="s">
+      <c r="Q3" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="88"/>
+      <c r="R3" s="79"/>
     </row>
     <row r="4" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="32" t="s">
@@ -6110,52 +6155,52 @@
       <c r="I4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="77" t="s">
         <v>111</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="88"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H5" s="32" t="s">
@@ -6164,52 +6209,52 @@
       <c r="I5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="77" t="s">
         <v>115</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="N5" s="86" t="s">
+      <c r="N5" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="O5" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="Q5" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="88"/>
+      <c r="R5" s="79"/>
     </row>
     <row r="6" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H6" s="32" t="s">
@@ -6218,31 +6263,85 @@
       <c r="I6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="77" t="s">
         <v>120</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" ht="49.5">
+      <c r="A7" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -6271,19 +6370,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6321,8 +6420,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6334,8 +6433,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6347,8 +6446,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6360,8 +6459,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6373,8 +6472,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6386,8 +6485,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6399,8 +6498,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6412,8 +6511,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6474,36 +6573,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6788,36 +6887,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7102,36 +7201,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7418,36 +7517,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_磐石组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.3.8 201704111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.3.8 201704111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" tabRatio="764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -523,11 +523,46 @@
   <si>
     <t>不可重复执行，如有错，需开发修复</t>
   </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>//生产环境配置值请参考 mogoroom-bs 主写库配置
+jdbc.driverClassName_landlordRepo=
+jdbc.url_landlordRepo=
+jdbc.username_landlordRepo=
+jdbc.password_landlordRepo=</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新的数据源配置，用来做不同数据库的数据交互</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28">
     <font>
       <sz val="11"/>
@@ -974,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1253,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,8 +1283,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5939,8 +5989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6323,7 +6373,7 @@
       <c r="K7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="81" t="s">
         <v>130</v>
       </c>
       <c r="M7" s="77" t="s">
@@ -6359,6 +6409,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
@@ -6370,19 +6421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6420,8 +6471,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6433,8 +6484,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6446,8 +6497,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6459,8 +6510,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6472,8 +6523,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6485,8 +6536,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6498,8 +6549,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6511,8 +6562,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6573,36 +6624,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6887,36 +6938,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7181,8 +7232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7201,36 +7252,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7273,20 +7324,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
+    <row r="4" spans="1:13" ht="107.25" customHeight="1">
+      <c r="A4" s="91">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="91"/>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
@@ -7477,10 +7550,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
@@ -7517,36 +7590,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -8040,5 +8113,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>